--- a/biology/Histoire de la zoologie et de la botanique/Walter_Medley_Tattersall/Walter_Medley_Tattersall.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Walter_Medley_Tattersall/Walter_Medley_Tattersall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Medley Tattersall est un biologiste marin et un zoologiste britannique, né le 8 novembre 1882 à Liverpool et mort le 5 octobre 1943.
 Il est le fils aîné d’une famille de drapiers. Il étudie la zoologie à l’Université de Liverpool où il est diplômé en 1901. Il travaille alors comme naturaliste au sein du département des pêches irlandais sous la direction d’Ernest William Lyons Holt (1864-1922) et où il commence l’étude des crustacés. En 1909, il devient le directeur du muséum de Manchester et travaille dans le domaine de la biologie marine dans les universités de Manchester et de Sheffield. Il obtient son doctorat de sciences en 1911.
@@ -513,7 +525,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Walter Medley Tattersall » (voir la liste des auteurs) (version du 24 novembre 2006).</t>
         </is>
